--- a/Project/testdata/Shashank.xlsx
+++ b/Project/testdata/Shashank.xlsx
@@ -409,7 +409,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Contact Supplier</v>
+        <v>Supplier</v>
       </c>
     </row>
     <row r="3">
